--- a/Data/Food_database.xlsx
+++ b/Data/Food_database.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amy\Desktop\supper_time\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00742989\Desktop\supper_time\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0679525A-48D0-4836-AB70-D217B14590B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{75A6D180-042A-448D-86E8-67B2A5E66DF8}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20712" windowHeight="13272"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Food" sheetId="1" r:id="rId1"/>
+    <sheet name="Notes" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Food!$A$1:$E$50</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Veggie</t>
   </si>
   <si>
-    <t>Beef Stew</t>
-  </si>
-  <si>
     <t>Rice</t>
   </si>
   <si>
@@ -111,12 +108,123 @@
   </si>
   <si>
     <t>Cookies</t>
+  </si>
+  <si>
+    <t>Pasta+ pesto</t>
+  </si>
+  <si>
+    <t>cioppino (fish stew)</t>
+  </si>
+  <si>
+    <t>Chicken with hoisin</t>
+  </si>
+  <si>
+    <t>roast chicken</t>
+  </si>
+  <si>
+    <t>Beef Stew + Biscuits</t>
+  </si>
+  <si>
+    <t>Sloppy Joes</t>
+  </si>
+  <si>
+    <t>Roast beef</t>
+  </si>
+  <si>
+    <t>pulled pork</t>
+  </si>
+  <si>
+    <t>Pizza</t>
+  </si>
+  <si>
+    <t>Baked Potato + toppings</t>
+  </si>
+  <si>
+    <t>Kale potato soup</t>
+  </si>
+  <si>
+    <t>split pea soup</t>
+  </si>
+  <si>
+    <t>Ribs</t>
+  </si>
+  <si>
+    <t>shephard's pie</t>
+  </si>
+  <si>
+    <t>Hot Dogs</t>
+  </si>
+  <si>
+    <t>Quiche</t>
+  </si>
+  <si>
+    <t>Meat Pies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pierogies </t>
+  </si>
+  <si>
+    <t>Steak</t>
+  </si>
+  <si>
+    <t>This means that the food has that property (so the side shouldn't)</t>
+  </si>
+  <si>
+    <t>The opposite</t>
+  </si>
+  <si>
+    <t>Green Beans</t>
+  </si>
+  <si>
+    <t>Artichokes</t>
+  </si>
+  <si>
+    <t>tomato boccinci salad</t>
+  </si>
+  <si>
+    <t>raw veggies</t>
+  </si>
+  <si>
+    <t>kale salad</t>
+  </si>
+  <si>
+    <t>cooked kale</t>
+  </si>
+  <si>
+    <t>Quinoa</t>
+  </si>
+  <si>
+    <t>couscous</t>
+  </si>
+  <si>
+    <t>coconut rice</t>
+  </si>
+  <si>
+    <t>Risotto</t>
+  </si>
+  <si>
+    <t>Canneloni + Bread</t>
+  </si>
+  <si>
+    <t>Cake</t>
+  </si>
+  <si>
+    <t>popsicles</t>
+  </si>
+  <si>
+    <t>freezies</t>
+  </si>
+  <si>
+    <t>rice pudding</t>
+  </si>
+  <si>
+    <t>tapioca pudding</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -142,7 +250,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -150,13 +258,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,19 +606,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8054A9AE-24F4-4AE6-BD4A-A46634068A6C}">
-  <dimension ref="A1:E21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.86328125" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,10 +633,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -516,7 +653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -533,197 +670,197 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="B8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+      <c r="B9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="b">
-        <v>1</v>
-      </c>
-      <c r="C10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="b">
-        <v>1</v>
-      </c>
-      <c r="C11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="b">
-        <v>1</v>
-      </c>
-      <c r="C12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="b">
-        <v>1</v>
-      </c>
-      <c r="C13" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="b">
-        <v>1</v>
-      </c>
-      <c r="C14" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
       <c r="B15" t="b">
         <v>0</v>
       </c>
@@ -737,106 +874,729 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="b">
-        <v>1</v>
-      </c>
-      <c r="C16" t="b">
-        <v>0</v>
-      </c>
-      <c r="D16" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B17" t="b">
-        <v>1</v>
-      </c>
-      <c r="C17" t="b">
-        <v>0</v>
-      </c>
-      <c r="D17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B18" t="b">
-        <v>1</v>
-      </c>
-      <c r="C18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+      <c r="B19" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="b">
-        <v>0</v>
-      </c>
-      <c r="C19" t="b">
-        <v>0</v>
-      </c>
-      <c r="D19" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+      <c r="B20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B20" t="b">
-        <v>0</v>
-      </c>
-      <c r="C20" t="b">
-        <v>0</v>
-      </c>
-      <c r="D20" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+      <c r="B21" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="b">
-        <v>0</v>
-      </c>
-      <c r="C21" t="b">
-        <v>0</v>
-      </c>
-      <c r="D21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21" t="b">
-        <v>1</v>
+      <c r="B22" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" t="b">
+        <v>1</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="b">
+        <v>0</v>
+      </c>
+      <c r="C48" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" t="b">
+        <v>0</v>
+      </c>
+      <c r="C49" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51" t="b">
+        <v>0</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" t="b">
+        <v>0</v>
+      </c>
+      <c r="C53" t="b">
+        <v>0</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" t="b">
+        <v>0</v>
+      </c>
+      <c r="C54" t="b">
+        <v>0</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" t="b">
+        <v>0</v>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E50"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Notes!$B$3:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:E55</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
